--- a/docs/assets/disciplinas/LOB1213.xlsx
+++ b/docs/assets/disciplinas/LOB1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao discente conhecimentos básicos para caracterização dos fundamentos meteorológicos necessários à compreensão dos climas e da circulação geral da atmosfera; fornecer aos alunos condições para identificação e interpretação dos sistemas atmosféricos, bem como sua variação espacial e temporal e influência no meio ambiente</t>
+    <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>9146830 - Danúbia Caporusso Bargos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Atmosfera Terrestre. Balanço de calor do sistema terrestre. Elementos e fatores do clima. Circulação geral da atmosfera e dos oceanos e o clima global. Eventos especiais. Classificações Climáticas. Evolução do clima da Terra e Mudanças climáticas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Atmosfera Terrestre. Balanço de energia e distribuição das temperaturas do planeta. Movimentos de rotação e translação do planeta e as estações do ano. Principais elementos climáticos (radiação solar e insolação, temperatura, umidade do ar, pressão atmosférica, vento, nebulosidade, precipitação). Principais fatores do clima (latitude, altitude, continentalidade e maritimidade, vegetação, solos, disposição do relevo, intervenção antrópica, correntes marítimas). Circulação geral da atmosfera e dos oceanos e o clima global. Interação oceano-atmosfera. As massas de ar e o mecanismo das frentes. Massas de ar atuantes no Brasil. Efeito Estuda. Inversão Térmica. Tempestades Tropicais. Eventos Oscilação Sul (El Niño e La Niña). Classificações Climáticas. Caracterização Climática da Terra e do território brasileiro. Clima e suas relações com saúde, recursos hídricos, energia, agricultura. Previsão climática e modelos climáticos. Evolução do clima da Terra e Mudanças Climáticas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Provas e/ou exercícios dirigidos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:AYOADE, J.O. Introdução à Climatologia para os trópicos. Rio de Janeiro. Bertrand Brasil, 1983.CUADRAT, J. M. &amp; PITA, M. F. Climatologia. Madrid, Ediciones Cátedra, 1997. DEMILLO, Rob - Como funciona o clima. S. Paulo. Quark Books, 1998.LOMBARDO, M. A. Ilha de calor nas metrópoles: o exemplo de São Paulo. São Paulo: Hucitec, 1985. MENDONÇA, F. Climatologia. Noções Básicas e Climas do Brasil. Oficina de Textos. São Paulo, 2007.MONTEIRO, C. A. F. A frente polar atlântica e as chuvas na fachada sul-oriental do Brasil: contribuição metodológica à análise rítmica dos tipos de tempo no Brasil. São Paulo, Instituto de Geografia-IGEOUP USP, Série Teses e Monografias no. 01, 1969.MONTEIRO, C. A. F. Análise rítmica em Climatologia: problemas de atualidade climática e achegas para um programa de trabalho. São Paulo, Instituto de Geografia-IGEOG USP, Série Climatologia no. 01, 1971.MONTEIRO, C. A. Teoria e clima urbano. São Paulo: Edusp, 1976.MONTEIRO, C. A. F. A dinâmica climática e as chuvas de inverno na fachada Sul Oriental do Brasil: estudo geográfico sob forma de atlas. São Paulo, Instituto de Geografia-IGEOG USP, 1973.TORRES, F.T.P; MACHADO, P.J.O. Introdução à Climatologia. São Paulo. Cengage Learning, 2011.VAREJÃO-SILVA, M.A. - Meteorologia e Climatologia. Brasília, INMET, Gráfica e Editora Stilo, 2000.Bibliografia complementar:PEIXOTO, J. P. Radiação Solar e Ambiente. Lisboa: Secretaria de Estado do Ambiente,. Coleçcão “O Ambiente e o Homem”, 1981.PEIXOTO, J. P. A Água no Ambiente. Lisboa: Secretaria de Estado do Ambiente. Coleçcão “O Ambiente e o Homem”, 1989.ASSIS, Francisco N. et al. Aplicações de Estatística à Climatologia. Pelotas, RS: Ed. Universitária, UFPEL, 1996.OMETTO, J. C. Bioclimatologia vegetal. São Paulo: CERES, 1989.MILLER, Austin. Climatologia. Barcelona: Editorial Omega, 1955</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1213.xlsx
+++ b/docs/assets/disciplinas/LOB1213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao discente conhecimentos básicos para caracterização dos fundamentos meteorológicos necessários à compreensão dos climas e da circulação geral da atmosfera; fornecer aos alunos condições para identificação e interpretação dos sistemas atmosféricos, bem como sua variação espacial e temporal e influência no meio ambiente</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide basic knowledge of required meteorological fundamentals to understand climates and the atmosphere general circulation; Provide conditions for recognition and interpretation of atmospheric systems, as well as their spatial and temporal variation and influence on environment.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>9146830 - Danúbia Caporusso Bargos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide basic knowledge of required meteorological fundamentals to understand climates and the atmosphere general circulation; Provide conditions for recognition and interpretation of atmospheric systems, as well as their spatial and temporal variation and influence on environment.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Atmosfera Terrestre. Balanço de calor do sistema terrestre. Elementos e fatores do clima. Circulação geral da atmosfera e dos oceanos e o clima global. Eventos especiais. Classificações Climáticas. Evolução do clima da Terra e Mudanças climáticas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Atmosfera Terrestre. Balanço de energia e distribuição das temperaturas do planeta. Movimentos de rotação e translação do planeta e as estações do ano. Principais elementos climáticos (radiação solar e insolação, temperatura, umidade do ar, pressão atmosférica, vento, nebulosidade, precipitação). Principais fatores do clima (latitude, altitude, continentalidade e maritimidade, vegetação, solos, disposição do relevo, intervenção antrópica, correntes marítimas). Circulação geral da atmosfera e dos oceanos e o clima global. Interação oceano-atmosfera. As massas de ar e o mecanismo das frentes. Massas de ar atuantes no Brasil. Efeito Estuda. Inversão Térmica. Tempestades Tropicais. Eventos Oscilação Sul (El Niño e La Niña). Classificações Climáticas. Caracterização Climática da Terra e do território brasileiro. Clima e suas relações com saúde, recursos hídricos, energia, agricultura. Previsão climática e modelos climáticos. Evolução do clima da Terra e Mudanças Climáticas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, visitas técnicas e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Provas e/ou exercícios dirigidos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Provas e/ou exercícios dirigidos.</t>
+    <t>Bibliografia básica:AYOADE, J.O. Introdução à Climatologia para os trópicos. Rio de Janeiro. Bertrand Brasil, 1983.CUADRAT, J. M. &amp; PITA, M. F. Climatologia. Madrid, Ediciones Cátedra, 1997. DEMILLO, Rob - Como funciona o clima. S. Paulo. Quark Books, 1998.LOMBARDO, M. A. Ilha de calor nas metrópoles: o exemplo de São Paulo. São Paulo: Hucitec, 1985. MENDONÇA, F. Climatologia. Noções Básicas e Climas do Brasil. Oficina de Textos. São Paulo, 2007.MONTEIRO, C. A. F. A frente polar atlântica e as chuvas na fachada sul-oriental do Brasil: contribuição metodológica à análise rítmica dos tipos de tempo no Brasil. São Paulo, Instituto de Geografia-IGEOUP USP, Série Teses e Monografias no. 01, 1969.MONTEIRO, C. A. F. Análise rítmica em Climatologia: problemas de atualidade climática e achegas para um programa de trabalho. São Paulo, Instituto de Geografia-IGEOG USP, Série Climatologia no. 01, 1971.MONTEIRO, C. A. Teoria e clima urbano. São Paulo: Edusp, 1976.MONTEIRO, C. A. F. A dinâmica climática e as chuvas de inverno na fachada Sul Oriental do Brasil: estudo geográfico sob forma de atlas. São Paulo, Instituto de Geografia-IGEOG USP, 1973.TORRES, F.T.P; MACHADO, P.J.O. Introdução à Climatologia. São Paulo. Cengage Learning, 2011.VAREJÃO-SILVA, M.A. - Meteorologia e Climatologia. Brasília, INMET, Gráfica e Editora Stilo, 2000.Bibliografia complementar:PEIXOTO, J. P. Radiação Solar e Ambiente. Lisboa: Secretaria de Estado do Ambiente,. Coleçcão “O Ambiente e o Homem”, 1981.PEIXOTO, J. P. A Água no Ambiente. Lisboa: Secretaria de Estado do Ambiente. Coleçcão “O Ambiente e o Homem”, 1989.ASSIS, Francisco N. et al. Aplicações de Estatística à Climatologia. Pelotas, RS: Ed. Universitária, UFPEL, 1996.OMETTO, J. C. Bioclimatologia vegetal. São Paulo: CERES, 1989.MILLER, Austin. Climatologia. Barcelona: Editorial Omega, 1955</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
